--- a/pred_ohlcv/54_21/2020-01-19 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-53015.49672780083</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-53163.50632780083</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-53052.56042780083</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-58100.58112780083</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-59761.74832780083</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-62611.03102780083</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-64575.12402780083</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-63706.22402780083</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-63706.22402780083</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-63450.03702780083</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-64737.83402780083</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-63725.00412780083</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-54186.00412780083</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-53686.00412780083</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-55404.35722780084</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-53668.78822780083</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49985.36212780084</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-49577.31212780083</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-15019.54632780083</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>148383.6688488406</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>165805.6390488406</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>164026.7390488407</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>150059.8717488406</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>138041.6177488407</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>148357.0324488406</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>141210.1278488407</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>141212.1278488407</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>130196.3252488407</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>129885.6975488407</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-49017.39362780083</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-53015.49672780083</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-53163.50632780083</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-53052.56042780083</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-51851.22362780083</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-50594.02362780084</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-43353.19982780084</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-43351.10772780084</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-49243.70552780083</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-49243.70552780083</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-58100.58112780083</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-58098.03112780083</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-63624.48422780083</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-63450.03702780083</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-64737.83402780083</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-53686.00412780083</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-54652.64362780083</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-53716.39792780083</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-55404.35722780084</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-53668.78822780083</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-53688.78822780083</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49985.36212780084</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-49640.86212780084</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-49577.31212780083</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-49574.31212780083</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-49528.31212780083</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-49548.31212780083</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-49548.31212780083</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-15019.54632780083</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-21560.14732780083</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>148383.6688488406</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>164026.7390488407</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>150059.8717488406</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>141210.1278488407</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>141212.1278488407</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>141219.1278488407</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>130196.3252488407</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>129885.6975488407</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
